--- a/first_test_edges.xlsx
+++ b/first_test_edges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu-my.sharepoint.com/personal/dkydros_ihu365_gr/Documents/ELIDEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{64121C99-CF8B-413B-B802-2D3F6101D388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B50CF19B-DFB8-4B78-9307-53A2754B1049}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{64121C99-CF8B-413B-B802-2D3F6101D388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EA19846-BD7C-4D15-934E-AB559C7D21E2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04C8EDB9-8137-4793-8D9A-30FD70EA2EF7}"/>
+    <workbookView xWindow="2412" yWindow="1320" windowWidth="9168" windowHeight="11424" xr2:uid="{04C8EDB9-8137-4793-8D9A-30FD70EA2EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>source</t>
   </si>
@@ -126,6 +126,27 @@
   </si>
   <si>
     <t>sentiment analysis, SNA</t>
+  </si>
+  <si>
+    <t>Polychronidou P</t>
+  </si>
+  <si>
+    <t>tralala</t>
+  </si>
+  <si>
+    <t>statistics, econometrics</t>
+  </si>
+  <si>
+    <t>kikiki</t>
+  </si>
+  <si>
+    <t>economics</t>
+  </si>
+  <si>
+    <t>lalala</t>
+  </si>
+  <si>
+    <t>operations research</t>
   </si>
 </sst>
 </file>
@@ -522,7 +543,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,13 +729,64 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>332123</v>
+      </c>
+      <c r="E10">
+        <v>2022</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>11111</v>
+      </c>
+      <c r="E11">
+        <v>2023</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>22222</v>
+      </c>
+      <c r="E12">
+        <v>2022</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/first_test_edges.xlsx
+++ b/first_test_edges.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ihuedu-my.sharepoint.com/personal/dkydros_ihu365_gr/Documents/ELIDEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{64121C99-CF8B-413B-B802-2D3F6101D388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EA19846-BD7C-4D15-934E-AB559C7D21E2}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{64121C99-CF8B-413B-B802-2D3F6101D388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5505AA2F-75D6-49CE-83F7-6B868CE17801}"/>
   <bookViews>
-    <workbookView xWindow="2412" yWindow="1320" windowWidth="9168" windowHeight="11424" xr2:uid="{04C8EDB9-8137-4793-8D9A-30FD70EA2EF7}"/>
+    <workbookView xWindow="10380" yWindow="816" windowWidth="9168" windowHeight="11424" xr2:uid="{04C8EDB9-8137-4793-8D9A-30FD70EA2EF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>source</t>
   </si>
@@ -221,6 +221,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -540,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8AC0D6-E225-40B4-ADF4-117F9A40F413}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,6 +792,46 @@
         <v>36</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>22222</v>
+      </c>
+      <c r="E13">
+        <v>2022</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>22222</v>
+      </c>
+      <c r="E14">
+        <v>2022</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
